--- a/data/income_statement/3digits/total/014_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/014_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>014-Animal production</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>014-Animal production</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1501885.24676</v>
@@ -959,34 +865,39 @@
         <v>2445140.90342</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3197553.95745</v>
+        <v>3201653.0733</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4250891.61638</v>
+        <v>4267182.39181</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5266574.60589</v>
+        <v>5281587.55762</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6398297.03946</v>
+        <v>6451903.682160001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7480986.93519</v>
+        <v>7647954.606609999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>9551574.50749</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>13467917.9172</v>
+        <v>13477856.6748</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>16402109.63942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16681020.39293</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>20709055.797</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1403328.07282</v>
@@ -998,40 +909,45 @@
         <v>2282830.82949</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2962325.04538</v>
+        <v>2966301.8642</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3855183.327940001</v>
+        <v>3871012.77582</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4832581.47645</v>
+        <v>4846643.37447</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5865937.236119999</v>
+        <v>5914237.614100001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6973003.21838</v>
+        <v>7136427.86692</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>8797044.426999999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11917978.54686</v>
+        <v>11927820.14822</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>14229042.44829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14480114.24443</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>18204766.731</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>68458.40737</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>64968.06464</v>
+        <v>64968.06464000001</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>106802.59382</v>
@@ -1040,70 +956,80 @@
         <v>162917.09702</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>287882.1217200001</v>
+        <v>287895.85516</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>303875.96716</v>
+        <v>303875.9671599999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>373040.9660200001</v>
+        <v>373040.96602</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>353301.01663</v>
+        <v>355694.47494</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>570908.4350899999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1267080.29972</v>
+        <v>1267088.63311</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1814086.95719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1837407.71085</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1985064.837</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>30098.76657</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>32284.74998999999</v>
+        <v>32284.74999</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>55507.48011</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>72311.81505</v>
+        <v>72434.11207999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>107826.16672</v>
+        <v>108273.76083</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>130117.16228</v>
+        <v>131068.21599</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>159318.83732</v>
+        <v>164625.10204</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>154682.70018</v>
+        <v>155832.26475</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>183621.6454</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>282859.07062</v>
+        <v>282947.89347</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>358980.23394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>363498.43765</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>519224.229</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>13722.22569</v>
@@ -1115,76 +1041,86 @@
         <v>16806.53432</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>33175.84694</v>
+        <v>33178.302</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>40999.80571</v>
+        <v>41051.72206</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>54229.18856</v>
+        <v>54231.19875</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>63014.72751</v>
+        <v>63052.29178</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>104591.9459</v>
+        <v>105932.8887</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>145336.27289</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>190091.53615</v>
+        <v>190095.86578</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>186386.50003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>186544.64014</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>485533.349</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>3631.01731</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5835.087210000001</v>
+        <v>5835.08721</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5818.80904</v>
+        <v>5818.809039999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>14344.10715</v>
+        <v>14344.73215</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9088.331390000001</v>
+        <v>9089.650589999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>12916.76916</v>
+        <v>12917.63234</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>14801.67676</v>
+        <v>14830.28831</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>30280.08367</v>
+        <v>31090.10179</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>42478.2012</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>57583.94155</v>
+        <v>57588.27118</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>65718.55623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>65859.98054999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>370492.325</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>7157.066769999999</v>
+        <v>7157.06677</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>8291.528749999999</v>
@@ -1193,19 +1129,19 @@
         <v>9019.85968</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>13944.04779</v>
+        <v>13945.2202</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>25363.70675</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>33400.35194</v>
+        <v>33400.49757</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>41206.69479</v>
+        <v>41208.82188</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>66929.98718</v>
+        <v>67460.91185999999</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>91656.14997</v>
@@ -1214,13 +1150,18 @@
         <v>113702.03786</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>102402.1196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>102418.81531</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>87390.997</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2934.14161</v>
@@ -1232,16 +1173,16 @@
         <v>1967.8656</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>4887.692</v>
+        <v>4888.349649999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>6547.76757</v>
+        <v>6598.36472</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7912.067460000001</v>
+        <v>7913.06884</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7006.35596</v>
+        <v>7013.181590000001</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>7381.87505</v>
@@ -1253,13 +1194,18 @@
         <v>18805.55674</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>18265.8242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18265.84428</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>27650.027</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1488163.02107</v>
@@ -1271,34 +1217,39 @@
         <v>2428334.3691</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3164378.11051</v>
+        <v>3168474.7713</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4209891.810670001</v>
+        <v>4226130.66975</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5212345.41733</v>
+        <v>5227356.35887</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6335282.31195</v>
+        <v>6388851.390379999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7376394.989290001</v>
+        <v>7542021.71791</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>9406238.234599998</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>13277826.38105</v>
+        <v>13287760.80902</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>16215723.13939</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16494475.75279</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>20223522.448</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1309097.5101</v>
@@ -1310,34 +1261,39 @@
         <v>2175766.21683</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2848957.40479</v>
+        <v>2852436.0858</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3814568.981</v>
+        <v>3828499.49638</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4654620.83423</v>
+        <v>4666704.92894</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5667509.63609</v>
+        <v>5714028.115449999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6696451.32037</v>
+        <v>6841179.958520001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>8352947.70935</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11804737.41966</v>
+        <v>11812873.15926</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>14723503.06506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14982720.9304</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>18218117.068</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>745595.56202</v>
@@ -1349,34 +1305,39 @@
         <v>1264662.54474</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1627068.15942</v>
+        <v>1630191.51884</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2244398.92883</v>
+        <v>2255631.6432</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2820482.89965</v>
+        <v>2830001.1704</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3524618.89948</v>
+        <v>3553934.42927</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3987927.12572</v>
+        <v>4126877.24842</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>5063144.96266</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>6965166.32708</v>
+        <v>6968409.63463</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>8055493.7343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8160610.13342</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>10310573.704</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>482839.30941</v>
@@ -1385,76 +1346,86 @@
         <v>577110.9695199999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>769830.14825</v>
+        <v>769830.1482499999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1063229.63943</v>
+        <v>1063443.5764</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1365338.37497</v>
+        <v>1366455.2273</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1579107.32342</v>
+        <v>1580871.19897</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1808818.24291</v>
+        <v>1816775.50732</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2364386.388689999</v>
+        <v>2365583.55446</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2875410.48751</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4348251.54399</v>
+        <v>4352055.799550001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>6007185.93834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>6142173.36592</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7126390.08</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>67231.54877000001</v>
+        <v>67231.54876999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>87038.36839</v>
+        <v>87038.36839000002</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>126528.54677</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>127181.35151</v>
+        <v>127322.73613</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>160696.2093</v>
+        <v>162277.15798</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>195793.52837</v>
+        <v>196595.47678</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>243554.84964</v>
+        <v>252484.91143</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>258435.84017</v>
+        <v>263008.67827</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>309563.59603</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>379078.70687</v>
+        <v>380139.3112</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>514923.85532</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>529740.56561</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>629407.811</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>13431.0899</v>
@@ -1475,25 +1446,30 @@
         <v>59237.08279</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>90517.64406000001</v>
+        <v>90833.26743000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>85701.96578999999</v>
+        <v>85710.47736999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>104828.66315</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>112240.84172</v>
+        <v>112268.41388</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>145899.5371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>150196.86545</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>151745.473</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>179065.51097</v>
@@ -1505,34 +1481,39 @@
         <v>252568.15227</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>315420.70572</v>
+        <v>316038.6855</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>395322.82967</v>
+        <v>397631.17337</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>557724.5830999999</v>
+        <v>560651.4299300001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>667772.67586</v>
+        <v>674823.27493</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>679943.6689200001</v>
+        <v>700841.75939</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1053290.52525</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1473088.96139</v>
+        <v>1474887.64976</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1492220.07433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1511754.82239</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2005405.38</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>134152.72633</v>
@@ -1541,37 +1522,42 @@
         <v>164888.26861</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>231422.45999</v>
+        <v>231480.70785</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>295174.1627999999</v>
+        <v>296181.00581</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>370286.60793</v>
+        <v>372367.65605</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>441861.2175400001</v>
+        <v>444734.1792000001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>517386.7200500001</v>
+        <v>525015.8851599999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>592062.89315</v>
+        <v>600067.76268</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>719273.7750599999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>993291.45093</v>
+        <v>996005.9842300001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1144499.14265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1166100.28645</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1346234.304</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>434.4494</v>
@@ -1586,7 +1572,7 @@
         <v>507.96908</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>693.4683200000001</v>
+        <v>693.4683199999999</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>1109.85155</v>
@@ -1604,13 +1590,18 @@
         <v>2134.48152</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4256.40592</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4309.60103</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5920.683</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>42785.5914</v>
@@ -1619,115 +1610,130 @@
         <v>44641.53034</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>56757.66681</v>
+        <v>56757.66680999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>69890.86520999999</v>
+        <v>69972.90733</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>98749.3374</v>
+        <v>99030.64679000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>114206.78597</v>
+        <v>114622.03103</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>129611.12286</v>
+        <v>131237.28214</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>158306.84534</v>
+        <v>160004.36918</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>232500.79177</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>368596.40035</v>
+        <v>368684.42205</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>420087.8041899999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>422988.96714</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>505953.975</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>90932.68552999999</v>
+        <v>90932.68553</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>119592.15658</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>173614.65675</v>
+        <v>173672.90461</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>224775.32851</v>
+        <v>225700.1294</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>270843.80221</v>
+        <v>272643.5409399999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>326544.58002</v>
+        <v>329002.29662</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>387173.5709699999</v>
+        <v>393176.5768</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>433226.05892</v>
+        <v>439533.40461</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>485573.2859200001</v>
+        <v>485573.2859199999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>622560.5690599999</v>
+        <v>625187.08066</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>720154.9325400001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>738801.7182800001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>834359.6459999999</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>44912.78464</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>46220.51477</v>
+        <v>46220.51476999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>21145.69228</v>
+        <v>21087.44442</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>20246.54292</v>
+        <v>19857.67969</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>25036.22174</v>
+        <v>25263.51732</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>115863.36556</v>
+        <v>115917.25073</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>150385.95581</v>
+        <v>149807.38977</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>87880.77576999999</v>
+        <v>100773.99671</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>334016.75019</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>479797.51046</v>
+        <v>478881.6655300001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>347720.93168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>345654.53594</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>659171.076</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>23242.17832</v>
@@ -1736,37 +1742,42 @@
         <v>33319.73002</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>48639.11044</v>
+        <v>48645.15564</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>57732.29339</v>
+        <v>58040.60429</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>92845.61676999999</v>
+        <v>92991.94895999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>120184.37369</v>
+        <v>120491.82413</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>155434.67207</v>
+        <v>156381.58094</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>186809.6791</v>
+        <v>195913.62007</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>213365.19109</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>613315.5084500001</v>
+        <v>613513.7632</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>458326.55233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>460106.64475</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>719313.91</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>11.79471</v>
@@ -1790,7 +1801,7 @@
         <v>574.3749799999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>675.0856199999999</v>
+        <v>2275.08562</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>1405.76365</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1085.10615</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>10056.419</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>9194.82035</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1017.202</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2133.67708</v>
@@ -1856,7 +1877,7 @@
         <v>3487.28972</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5448.633640000001</v>
+        <v>5453.12721</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>8948.699189999999</v>
@@ -1865,25 +1886,30 @@
         <v>11671.13296</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>11122.08186</v>
+        <v>11276.25648</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>15180.74767</v>
+        <v>15263.13448</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>19223.33244</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>28313.76373</v>
+        <v>28338.15512</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>37122.33975</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>37302.28612</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>37399.476</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>219.9895</v>
@@ -1907,22 +1933,27 @@
         <v>1310.9114</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3192.34963</v>
+        <v>3535.719</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>460.9198</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>566.1108300000001</v>
+        <v>566.11083</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>1809.49652</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>428.104</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>196.13992</v>
@@ -1955,13 +1986,18 @@
         <v>880.86046</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3133.14266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3133.14673</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2481.11</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>611.90353</v>
@@ -1970,22 +2006,22 @@
         <v>164.30373</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>340.36494</v>
+        <v>346.41014</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>566.0325600000001</v>
+        <v>577.63039</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>450.28999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>280.89954</v>
+        <v>287.12217</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>1009.43629</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>615.5857</v>
+        <v>615.5857000000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1239.39069</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1775.37705</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>23216.102</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>11933.51013</v>
@@ -2012,19 +2053,19 @@
         <v>20546.91576</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>19765.09572</v>
+        <v>19765.09653</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>25768.45675</v>
+        <v>25768.459</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>41016.84578</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>71319.49982000001</v>
+        <v>71387.60078000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>95582.44796999999</v>
+        <v>101403.13684</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>107963.42256</v>
@@ -2033,13 +2074,18 @@
         <v>479691.94651</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>272456.6998300001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>273213.1534</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>481281.3</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>358.57437</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>938.708</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.456</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>2.33065</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>195.077</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8134.70745</v>
+        <v>8134.707449999999</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>15610.45609</v>
@@ -2129,34 +2185,39 @@
         <v>20288.54536</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>29193.85493</v>
+        <v>29486.07362</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>50465.20624</v>
+        <v>50611.53618</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>63090.33986000001</v>
+        <v>63391.56767</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>67334.33254</v>
+        <v>68058.96583</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>64009.96707999999</v>
+        <v>65267.463</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>79669.36386</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>101028.8558</v>
+        <v>101202.71916</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>131388.665</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>132232.35341</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>162300.412</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>20229.24581</v>
@@ -2165,37 +2226,42 @@
         <v>20746.75084</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>37631.91935</v>
+        <v>37634.37569</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>39224.47436</v>
+        <v>39232.12905</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>64673.22082</v>
+        <v>64681.81089</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>69545.85494</v>
+        <v>69553.03072999998</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>135189.44108</v>
+        <v>136352.4191</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>164171.35667</v>
+        <v>170298.44235</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>181086.8279</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>542754.6869499999</v>
+        <v>542754.98379</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>394406.29099</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>394674.0778</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>652000.451</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>87.37548999999999</v>
@@ -2207,19 +2273,19 @@
         <v>251.6723</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>273.11409</v>
+        <v>280.76807</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>612.70699</v>
+        <v>620.7701800000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>188.20207</v>
+        <v>194.30363</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>294.22819</v>
+        <v>323.95376</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>335.80784</v>
+        <v>335.80427</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>279.8135</v>
@@ -2228,13 +2294,18 @@
         <v>1065.04095</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1256.05074</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1243.17512</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1868.477</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2490.1026</v>
@@ -2249,16 +2320,16 @@
         <v>3483.80774</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5296.405279999999</v>
+        <v>5296.40528</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>852.2479000000001</v>
+        <v>852.2479</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>2060.99394</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>10242.41282</v>
+        <v>10242.41283</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>15650.93097</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>19852.98992</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>13001.43</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>148.01734</v>
@@ -2282,7 +2358,7 @@
         <v>53.00293</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>7.548229999999999</v>
+        <v>7.64697</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>343.25896</v>
@@ -2300,7 +2376,7 @@
         <v>147.13747</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>420.80732</v>
+        <v>420.8073200000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>3547.49124</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>787.38899</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3.883</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>7552.373209999999</v>
+        <v>7552.37321</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>7269.57057</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>19510.1768</v>
+        <v>19512.5344</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>13925.29676</v>
+        <v>13925.29747</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>35377.32258</v>
+        <v>35377.44039</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>31860.3327</v>
+        <v>31861.40693</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>92366.80220000001</v>
+        <v>92703.21128</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>112379.45525</v>
+        <v>118039.85799</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>127796.97442</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>473179.3436799999</v>
+        <v>473179.34368</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>313477.36304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>313657.93725</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>555980.382</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>5.85981</v>
@@ -2369,7 +2455,7 @@
         <v>1217.79787</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>831.66876</v>
+        <v>831.6687600000001</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>676.58703</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>305.51692</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>521.61</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>9945.51736</v>
@@ -2444,70 +2540,80 @@
         <v>20862.23358</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>22063.16686</v>
+        <v>22063.57593</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>35682.86334</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>39774.69955</v>
+        <v>40571.54292</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>40411.32364</v>
+        <v>40878.01014</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>36476.73975</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>42604.36655</v>
+        <v>42604.66339</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>58726.98138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>58827.06960000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>80624.66899999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>26226.75677</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>27070.78062999999</v>
+        <v>27070.78063</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>46780.42456</v>
+        <v>46966.1053</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>64358.5741</v>
+        <v>64612.52699</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>100262.06215</v>
+        <v>100899.81861</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>159136.71735</v>
+        <v>160176.14341</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>181944.4046</v>
+        <v>187747.44226</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>227706.10322</v>
+        <v>228292.62144</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>287299.94063</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>402384.91918</v>
+        <v>402413.72495</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>438515.03402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>442112.12362</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>481846.399</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>15273.06083</v>
@@ -2516,37 +2622,42 @@
         <v>17747.47404</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>28083.24106</v>
+        <v>28268.9218</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>49461.82446</v>
+        <v>49715.77735</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>67500.51631000001</v>
+        <v>68138.27277</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>112739.65898</v>
+        <v>113779.08504</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>135616.34068</v>
+        <v>141419.37834</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>183176.49352</v>
+        <v>183763.01174</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>225415.41454</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>301167.39957</v>
+        <v>301196.20534</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>347415.30791</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>350771.51265</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>389795.466</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>10953.69594</v>
@@ -2564,7 +2675,7 @@
         <v>32761.54584</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>46397.05837000001</v>
+        <v>46397.05837</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>46328.06392</v>
@@ -2579,13 +2690,18 @@
         <v>101217.51961</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>91099.72611</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>91340.61096999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>92050.933</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>21698.96038</v>
@@ -2594,37 +2710,42 @@
         <v>31722.71332</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-14627.54119</v>
+        <v>-14867.88093</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-25604.21215</v>
+        <v>-25946.37206</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-47053.44445999999</v>
+        <v>-47326.16322</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>7365.16696</v>
+        <v>6679.900720000002</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-11313.2178</v>
+        <v>-17910.89065</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-117187.00502</v>
+        <v>-101903.44701</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>78995.17275</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>147973.41278</v>
+        <v>147226.71999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-26873.84100000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-31025.02072999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>244638.136</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>14362.46209</v>
@@ -2636,34 +2757,39 @@
         <v>38180.80538000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>57437.44959999999</v>
+        <v>58417.09396</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>57396.22798</v>
+        <v>58590.22877</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>88615.06971000001</v>
+        <v>89417.62562000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>101086.20418</v>
+        <v>105032.13353</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>105774.3335</v>
+        <v>105842.12597</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>163386.64152</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>151056.32642</v>
+        <v>151143.4442</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>195499.52161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>197978.3973</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>261265.099</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>183.27565</v>
@@ -2681,28 +2807,33 @@
         <v>1032.48741</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>367.4521</v>
+        <v>369.18784</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>1083.26125</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>502.0589500000001</v>
+        <v>502.05895</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>717.8980900000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1567.23096</v>
+        <v>1568.86396</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3012.98646</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3012.986460000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>12471.339</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>14179.18644</v>
@@ -2714,34 +2845,39 @@
         <v>37758.96073999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>56275.28442</v>
+        <v>57254.92878</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>56363.74056999999</v>
+        <v>57557.74136</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>88247.61760999999</v>
+        <v>89048.43778000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>100002.94293</v>
+        <v>103948.87228</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>105272.27455</v>
+        <v>105340.06702</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>162668.74343</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>149489.09546</v>
+        <v>149574.58024</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>192486.53515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>194965.41084</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>248793.76</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>26930.62658</v>
@@ -2750,37 +2886,42 @@
         <v>21395.69553</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>60162.04148000001</v>
+        <v>60162.04147999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>60637.77318</v>
+        <v>61108.28925</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>62838.76912</v>
+        <v>63175.51772</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>81743.46837999999</v>
+        <v>82628.41663000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>112089.28228</v>
+        <v>113965.16711</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>140921.09093</v>
+        <v>144344.6233</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>110165.88952</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>192408.26579</v>
+        <v>192461.6245</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>189589.34869</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>190977.76782</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>245052.759</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3390.13</v>
@@ -2804,7 +2945,7 @@
         <v>15985.81302</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>11026.55841</v>
+        <v>12285.73691</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>19434.52392</v>
@@ -2813,25 +2954,30 @@
         <v>22338.58225</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>16185.621</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>16190.84039</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>38035.432</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>347.00444</v>
+        <v>347.0044399999999</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>339.82683</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>324.3817099999999</v>
+        <v>324.38171</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1212.65969</v>
+        <v>1205.27313</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>1112.30648</v>
@@ -2840,7 +2986,7 @@
         <v>2709.16211</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1675.01418</v>
+        <v>1706.9365</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>2763.91762</v>
@@ -2849,16 +2995,21 @@
         <v>1858.75068</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2851.61406</v>
+        <v>2853.05547</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3958.79766</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3959.26434</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>12201.549</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>23193.49214</v>
@@ -2867,37 +3018,42 @@
         <v>18578.84851</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>57169.96737000001</v>
+        <v>57169.96737</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>53934.68124000001</v>
+        <v>54412.58387</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>58450.25324000001</v>
+        <v>58787.00184</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>75154.03603999999</v>
+        <v>76038.98428999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>94428.45508000001</v>
+        <v>96272.41759</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>127130.6149</v>
+        <v>129294.96877</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>88872.61492000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>167218.06948</v>
+        <v>167269.98678</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>169444.93003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>170827.66309</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>194815.778</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>9130.795890000001</v>
@@ -2906,37 +3062,42 @@
         <v>32185.51248</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-36608.77729</v>
+        <v>-36849.11703</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-28804.53573</v>
+        <v>-28637.56735</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-52495.98559999999</v>
+        <v>-51911.45217</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>14236.76829</v>
+        <v>13469.10971</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-22316.2959</v>
+        <v>-26843.92423</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-152333.76245</v>
+        <v>-140405.94434</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>132215.92475</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>106621.47341</v>
+        <v>105908.53969</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-20963.66807999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-24024.39125</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>260850.476</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>7477.03786</v>
@@ -2948,70 +3109,78 @@
         <v>14488.68778</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>16340.02762</v>
+        <v>16360.83811</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>14806.98363</v>
+        <v>14832.15787</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>19717.46253</v>
+        <v>19758.82138</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>25480.69394</v>
+        <v>25540.4834</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>24702.84703</v>
+        <v>26914.37186</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>36243.79088</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>68760.85799999999</v>
+        <v>68839.28838000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>73069.26115999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>73639.17771999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>114243.852</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1653.75803</v>
+        <v>1653.758029999999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>21758.98578</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-51097.46507</v>
+        <v>-51337.80481</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-45144.56335</v>
+        <v>-44998.40546000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-67302.96923</v>
+        <v>-66743.61003999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-5480.694239999999</v>
+        <v>-6289.711670000002</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-47796.98984</v>
+        <v>-52384.40762999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-177036.60948</v>
+        <v>-167320.3162</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>95972.13387000001</v>
+        <v>95972.13387000002</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>37860.61541000001</v>
+        <v>37069.25131</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-94032.92924000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-97663.56896999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>146606.624</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1695</v>
@@ -3038,34 +3210,37 @@
         <v>2251</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2705</v>
+        <v>2714</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3047</v>
+        <v>3069</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3241</v>
+        <v>3266</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3670</v>
+        <v>3718</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4281</v>
+        <v>4296</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4546</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4656</v>
+        <v>4837</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4723</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5012</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>